--- a/2020项目对接/01-01珊瑚配置产品/私人医生测试卡.xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/私人医生测试卡.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Healthlink\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\2020项目对接\01-01珊瑚配置产品\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,55 +45,63 @@
     <t>0436</t>
   </si>
   <si>
+    <t>920111710033</t>
+  </si>
+  <si>
+    <t>9439</t>
+  </si>
+  <si>
+    <t>920111710037</t>
+  </si>
+  <si>
+    <t>8491</t>
+  </si>
+  <si>
+    <t>920111710038</t>
+  </si>
+  <si>
+    <t>3709</t>
+  </si>
+  <si>
+    <t>920111710039</t>
+  </si>
+  <si>
+    <t>9273</t>
+  </si>
+  <si>
+    <t>920111710030</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>920111710032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4791</t>
-  </si>
-  <si>
-    <t>920111710033</t>
-  </si>
-  <si>
-    <t>9439</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>920111710034</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7824</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>920111710035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6114</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>920111710036</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3097</t>
-  </si>
-  <si>
-    <t>920111710037</t>
-  </si>
-  <si>
-    <t>8491</t>
-  </si>
-  <si>
-    <t>920111710038</t>
-  </si>
-  <si>
-    <t>3709</t>
-  </si>
-  <si>
-    <t>920111710039</t>
-  </si>
-  <si>
-    <t>9273</t>
-  </si>
-  <si>
-    <t>920111710030</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +487,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -526,10 +534,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -537,55 +545,55 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -593,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -604,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -615,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
